--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -82,10 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H2">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>0.2232299229473333</v>
+        <v>0.07295363493733334</v>
       </c>
       <c r="R2">
-        <v>2.009069306526</v>
+        <v>0.656582714436</v>
       </c>
       <c r="S2">
-        <v>0.02886642535068591</v>
+        <v>0.01886753155755868</v>
       </c>
       <c r="T2">
-        <v>0.02886642535068591</v>
+        <v>0.01886753155755868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H3">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>0.6455191626273333</v>
+        <v>0.7508810597774445</v>
       </c>
       <c r="R3">
-        <v>5.809672463646</v>
+        <v>6.757929537997001</v>
       </c>
       <c r="S3">
-        <v>0.08347371389280761</v>
+        <v>0.1941955613794107</v>
       </c>
       <c r="T3">
-        <v>0.08347371389280761</v>
+        <v>0.1941955613794107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H4">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>0.183482712594</v>
+        <v>0.0774153345398889</v>
       </c>
       <c r="R4">
-        <v>1.651344413346</v>
+        <v>0.696738010859</v>
       </c>
       <c r="S4">
-        <v>0.02372661315430217</v>
+        <v>0.02002143236214333</v>
       </c>
       <c r="T4">
-        <v>0.02372661315430217</v>
+        <v>0.02002143236214333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>1.404332</v>
       </c>
       <c r="I5">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J5">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N5">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q5">
-        <v>0.1768192860831111</v>
+        <v>0.04967777638933334</v>
       </c>
       <c r="R5">
-        <v>1.591373574748</v>
+        <v>0.447099987504</v>
       </c>
       <c r="S5">
-        <v>0.02286494863631667</v>
+        <v>0.01284784527241475</v>
       </c>
       <c r="T5">
-        <v>0.02286494863631667</v>
+        <v>0.01284784527241475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>1.404332</v>
       </c>
       <c r="I6">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J6">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P6">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q6">
         <v>0.5113124440564445</v>
@@ -824,10 +824,10 @@
         <v>4.601811996508</v>
       </c>
       <c r="S6">
-        <v>0.06611910402672312</v>
+        <v>0.1322374640042858</v>
       </c>
       <c r="T6">
-        <v>0.06611910402672312</v>
+        <v>0.1322374640042858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>1.404332</v>
       </c>
       <c r="I7">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J7">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N7">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q7">
-        <v>0.145335723012</v>
+        <v>0.0527159706528889</v>
       </c>
       <c r="R7">
-        <v>1.308021507108</v>
+        <v>0.474443735876</v>
       </c>
       <c r="S7">
-        <v>0.01879372954898912</v>
+        <v>0.01363359400439869</v>
       </c>
       <c r="T7">
-        <v>0.01879372954898912</v>
+        <v>0.01363359400439869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H8">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I8">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J8">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N8">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q8">
-        <v>0.008584032584888889</v>
+        <v>0.1866005176746666</v>
       </c>
       <c r="R8">
-        <v>0.07725629326400001</v>
+        <v>1.679404659072</v>
       </c>
       <c r="S8">
-        <v>0.001110022942031888</v>
+        <v>0.0482592972770693</v>
       </c>
       <c r="T8">
-        <v>0.001110022942031888</v>
+        <v>0.0482592972770693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H9">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I9">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J9">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>3.276869</v>
       </c>
       <c r="O9">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P9">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q9">
-        <v>0.02482264677155556</v>
+        <v>1.920600592238222</v>
       </c>
       <c r="R9">
-        <v>0.223403820944</v>
+        <v>17.285405330144</v>
       </c>
       <c r="S9">
-        <v>0.00320987917111187</v>
+        <v>0.4967126355615846</v>
       </c>
       <c r="T9">
-        <v>0.00320987917111187</v>
+        <v>0.4967126355615846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H10">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I10">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J10">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N10">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q10">
-        <v>0.007055602416000001</v>
+        <v>0.1980126351964444</v>
       </c>
       <c r="R10">
-        <v>0.063500421744</v>
+        <v>1.782113716768</v>
       </c>
       <c r="S10">
-        <v>0.000912377775149952</v>
+        <v>0.05121074017180193</v>
       </c>
       <c r="T10">
-        <v>0.0009123777751499517</v>
+        <v>0.05121074017180193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H11">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I11">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J11">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N11">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q11">
-        <v>1.192777365835334</v>
+        <v>0.001635406214666667</v>
       </c>
       <c r="R11">
-        <v>10.734996292518</v>
+        <v>0.014718655932</v>
       </c>
       <c r="S11">
-        <v>0.154241054856238</v>
+        <v>0.0004229546394933722</v>
       </c>
       <c r="T11">
-        <v>0.154241054856238</v>
+        <v>0.0004229546394933723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H12">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I12">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J12">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>3.276869</v>
       </c>
       <c r="O12">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P12">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q12">
-        <v>3.449182064075333</v>
+        <v>0.01683254785988889</v>
       </c>
       <c r="R12">
-        <v>31.042638576678</v>
+        <v>0.151492930739</v>
       </c>
       <c r="S12">
-        <v>0.4460224474343695</v>
+        <v>0.004353294091697785</v>
       </c>
       <c r="T12">
-        <v>0.4460224474343695</v>
+        <v>0.004353294091697785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H13">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I13">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J13">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N13">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q13">
-        <v>0.9803973576420002</v>
+        <v>0.001735424414777778</v>
       </c>
       <c r="R13">
-        <v>8.823576218778001</v>
+        <v>0.015618819733</v>
       </c>
       <c r="S13">
-        <v>0.1267776593958664</v>
+        <v>0.0004488217062755498</v>
       </c>
       <c r="T13">
-        <v>0.1267776593958663</v>
+        <v>0.0004488217062755499</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H14">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I14">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J14">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N14">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O14">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P14">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q14">
-        <v>0.03918063922444445</v>
+        <v>0.002124850102666667</v>
       </c>
       <c r="R14">
-        <v>0.35262575302</v>
+        <v>0.019123650924</v>
       </c>
       <c r="S14">
-        <v>0.005066547452204336</v>
+        <v>0.0005495363788464102</v>
       </c>
       <c r="T14">
-        <v>0.005066547452204336</v>
+        <v>0.0005495363788464103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H15">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I15">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J15">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>3.276869</v>
       </c>
       <c r="O15">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P15">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q15">
-        <v>0.1132995661577778</v>
+        <v>0.02187018780255555</v>
       </c>
       <c r="R15">
-        <v>1.01969609542</v>
+        <v>0.196831690223</v>
       </c>
       <c r="S15">
-        <v>0.01465105316337995</v>
+        <v>0.005656146659298109</v>
       </c>
       <c r="T15">
-        <v>0.01465105316337995</v>
+        <v>0.005656146659298109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H16">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I16">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J16">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N16">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O16">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P16">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q16">
-        <v>0.03220432938000001</v>
+        <v>0.002254801720111111</v>
       </c>
       <c r="R16">
-        <v>0.2898389644200001</v>
+        <v>0.020293215481</v>
       </c>
       <c r="S16">
-        <v>0.004164423199823428</v>
+        <v>0.0005831449337209546</v>
       </c>
       <c r="T16">
-        <v>0.004164423199823427</v>
+        <v>0.0005831449337209547</v>
       </c>
     </row>
   </sheetData>
